--- a/tamplet.xlsx
+++ b/tamplet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manha\Documents\attendance_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5932AAE9-DB68-4792-90D5-5AEF873AD0F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16E3F77-D1AE-4998-9524-8FBFA25B7CAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>Email</t>
   </si>
@@ -148,9 +148,6 @@
     <t>07510557671</t>
   </si>
   <si>
-    <t xml:space="preserve">0750 7562294 </t>
-  </si>
-  <si>
     <t>07503857335</t>
   </si>
   <si>
@@ -176,13 +173,19 @@
   </si>
   <si>
     <t>07504294806</t>
+  </si>
+  <si>
+    <t>m@m.com</t>
+  </si>
+  <si>
+    <t>f@f.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -200,6 +203,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="4">
@@ -317,12 +326,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -330,9 +342,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -350,8 +359,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1513,12 +1529,22 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="12" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
@@ -1558,462 +1584,470 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>20</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>30</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>24</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>23</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>34</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8" t="s">
+      <c r="I10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="F13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7" t="s">
+      <c r="I13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8" t="s">
+      <c r="I14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
+      <c r="I15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" ht="19.95" customHeight="1">
-      <c r="B23" s="8"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:11" ht="19.95" customHeight="1">
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="19.95" customHeight="1">
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:11" ht="19.95" customHeight="1">
-      <c r="B26" s="7"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:11" ht="19.95" customHeight="1">
-      <c r="B27" s="8"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:11" ht="19.95" customHeight="1">
-      <c r="B28" s="7"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="19.95" customHeight="1">
-      <c r="B29" s="8"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:11" ht="19.95" customHeight="1">
-      <c r="B30" s="9"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:11" ht="19.95" customHeight="1">
-      <c r="B31" s="10"/>
+      <c r="B31" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{FD9ED525-9C77-4026-B79B-1A668AE702F5}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{5761A5E5-E416-4254-9231-06F20F755315}"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
